--- a/model/results/ELEC/v_emissions.xlsx
+++ b/model/results/ELEC/v_emissions.xlsx
@@ -781,16 +781,16 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>2670364.363333333</v>
+        <v>2779112.233333333</v>
       </c>
       <c r="C3" t="n">
         <v>2779112.233333333</v>
       </c>
       <c r="D3" t="n">
-        <v>2670364.363333333</v>
+        <v>2779112.233333333</v>
       </c>
       <c r="E3" t="n">
-        <v>850640.8166666665</v>
+        <v>850640.8166666664</v>
       </c>
       <c r="F3" t="n">
         <v>850640.8166666665</v>
@@ -912,16 +912,16 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>2673034.727696666</v>
+        <v>2781891.345566665</v>
       </c>
       <c r="C4" t="n">
-        <v>2781891.345566665</v>
+        <v>2781891.345566666</v>
       </c>
       <c r="D4" t="n">
-        <v>2673034.727696666</v>
+        <v>2781891.345566666</v>
       </c>
       <c r="E4" t="n">
-        <v>851491.4574833331</v>
+        <v>851491.457483333</v>
       </c>
       <c r="F4" t="n">
         <v>851491.4574833331</v>
@@ -1043,16 +1043,16 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>2675707.762424362</v>
+        <v>2784673.236912232</v>
       </c>
       <c r="C5" t="n">
         <v>2784673.236912232</v>
       </c>
       <c r="D5" t="n">
-        <v>2675707.762424362</v>
+        <v>2784673.236912232</v>
       </c>
       <c r="E5" t="n">
-        <v>852342.9489408163</v>
+        <v>852342.9489408162</v>
       </c>
       <c r="F5" t="n">
         <v>852342.9489408163</v>
@@ -1174,16 +1174,16 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>2678383.470186786</v>
+        <v>2787457.910149144</v>
       </c>
       <c r="C6" t="n">
         <v>2787457.910149144</v>
       </c>
       <c r="D6" t="n">
-        <v>2678383.470186786</v>
+        <v>2787457.910149144</v>
       </c>
       <c r="E6" t="n">
-        <v>853195.2918897569</v>
+        <v>853195.2918897568</v>
       </c>
       <c r="F6" t="n">
         <v>853195.2918897569</v>
@@ -1198,73 +1198,73 @@
         <v>17670.50567041759</v>
       </c>
       <c r="J6" t="n">
-        <v>102910.6154101024</v>
+        <v>246985.4769842458</v>
       </c>
       <c r="K6" t="n">
-        <v>16465.69846561639</v>
+        <v>39517.67631747934</v>
       </c>
       <c r="L6" t="n">
-        <v>8232.849232808196</v>
+        <v>19758.83815873967</v>
       </c>
       <c r="M6" t="n">
-        <v>13378.38000331332</v>
+        <v>32108.11200795196</v>
       </c>
       <c r="N6" t="n">
-        <v>9261.95538690922</v>
+        <v>22228.69292858213</v>
       </c>
       <c r="O6" t="n">
-        <v>46309.77693454609</v>
+        <v>111143.4646429106</v>
       </c>
       <c r="P6" t="n">
-        <v>82328.49232808195</v>
+        <v>197588.3815873967</v>
       </c>
       <c r="Q6" t="n">
-        <v>30873.18462303073</v>
+        <v>74095.64309527376</v>
       </c>
       <c r="R6" t="n">
-        <v>10291.06154101024</v>
+        <v>24698.54769842459</v>
       </c>
       <c r="S6" t="n">
-        <v>53513.52001325326</v>
+        <v>128432.4480318078</v>
       </c>
       <c r="T6" t="n">
-        <v>1029.106154101024</v>
+        <v>2469.854769842459</v>
       </c>
       <c r="U6" t="n">
-        <v>27785.86616072766</v>
+        <v>66686.07878574637</v>
       </c>
       <c r="V6" t="n">
-        <v>20582.12308202049</v>
+        <v>49397.09539684917</v>
       </c>
       <c r="W6" t="n">
-        <v>7203.743078707169</v>
+        <v>17288.98338889721</v>
       </c>
       <c r="X6" t="n">
-        <v>45280.67078044507</v>
+        <v>108673.6098730682</v>
       </c>
       <c r="Y6" t="n">
-        <v>38076.9277017379</v>
+        <v>91384.62648417096</v>
       </c>
       <c r="Z6" t="n">
-        <v>20582.12308202049</v>
+        <v>49397.09539684917</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.9106154101024</v>
+        <v>246.9854769842458</v>
       </c>
       <c r="AB6" t="n">
-        <v>514.5530770505122</v>
+        <v>1234.927384921229</v>
       </c>
       <c r="AC6" t="n">
-        <v>12349.27384921229</v>
+        <v>29638.2572381095</v>
       </c>
       <c r="AD6" t="n">
-        <v>3087.318462303073</v>
+        <v>7409.564309527375</v>
       </c>
       <c r="AE6" t="n">
-        <v>27785.86616072766</v>
+        <v>66686.07878574637</v>
       </c>
       <c r="AF6" t="n">
-        <v>6174.636924606146</v>
+        <v>14819.12861905475</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>1419385.687230162</v>
+        <v>1528569.201632482</v>
       </c>
       <c r="C7" t="n">
         <v>1528569.201632482</v>
       </c>
       <c r="D7" t="n">
-        <v>2084325.307699503</v>
+        <v>1528569.201632482</v>
       </c>
       <c r="E7" t="n">
-        <v>467870.0408038585</v>
+        <v>467870.0408038584</v>
       </c>
       <c r="F7" t="n">
         <v>467870.0408038585</v>
@@ -1329,73 +1329,73 @@
         <v>17688.17617608801</v>
       </c>
       <c r="J7" t="n">
-        <v>103013.5260255125</v>
+        <v>247232.4624612301</v>
       </c>
       <c r="K7" t="n">
-        <v>16482.164164082</v>
+        <v>39557.19399379681</v>
       </c>
       <c r="L7" t="n">
-        <v>8241.082082041001</v>
+        <v>19778.59699689841</v>
       </c>
       <c r="M7" t="n">
-        <v>13391.75838331663</v>
+        <v>32140.22011995991</v>
       </c>
       <c r="N7" t="n">
-        <v>9271.217342296126</v>
+        <v>22250.9216215107</v>
       </c>
       <c r="O7" t="n">
-        <v>46356.08671148063</v>
+        <v>111254.6081075535</v>
       </c>
       <c r="P7" t="n">
-        <v>82410.82082041001</v>
+        <v>197785.969968984</v>
       </c>
       <c r="Q7" t="n">
-        <v>30904.05780765375</v>
+        <v>74169.73873836901</v>
       </c>
       <c r="R7" t="n">
-        <v>10301.35260255125</v>
+        <v>24723.24624612301</v>
       </c>
       <c r="S7" t="n">
-        <v>53567.03353326651</v>
+        <v>128560.8804798396</v>
       </c>
       <c r="T7" t="n">
-        <v>1030.135260255125</v>
+        <v>2472.324624612301</v>
       </c>
       <c r="U7" t="n">
-        <v>27813.65202688838</v>
+        <v>66752.76486453212</v>
       </c>
       <c r="V7" t="n">
-        <v>20602.7052051025</v>
+        <v>49446.49249224601</v>
       </c>
       <c r="W7" t="n">
-        <v>7210.946821785876</v>
+        <v>17306.2723722861</v>
       </c>
       <c r="X7" t="n">
-        <v>45325.9514512255</v>
+        <v>108782.2834829412</v>
       </c>
       <c r="Y7" t="n">
-        <v>38115.00462943963</v>
+        <v>91476.01111065512</v>
       </c>
       <c r="Z7" t="n">
-        <v>20602.7052051025</v>
+        <v>49446.49249224601</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.0135260255125</v>
+        <v>247.2324624612301</v>
       </c>
       <c r="AB7" t="n">
-        <v>515.0676301275626</v>
+        <v>1236.16231230615</v>
       </c>
       <c r="AC7" t="n">
-        <v>12361.6231230615</v>
+        <v>29667.89549534761</v>
       </c>
       <c r="AD7" t="n">
-        <v>3090.405780765375</v>
+        <v>7416.973873836901</v>
       </c>
       <c r="AE7" t="n">
-        <v>27813.65202688838</v>
+        <v>66752.76486453212</v>
       </c>
       <c r="AF7" t="n">
-        <v>6180.811561530751</v>
+        <v>14833.9477476738</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>1420805.072917392</v>
+        <v>1530097.770834114</v>
       </c>
       <c r="C8" t="n">
         <v>1530097.770834114</v>
       </c>
       <c r="D8" t="n">
-        <v>2086409.633007202</v>
+        <v>1530097.770834114</v>
       </c>
       <c r="E8" t="n">
         <v>468337.9108446622</v>
@@ -1460,73 +1460,73 @@
         <v>17705.8643522641</v>
       </c>
       <c r="J8" t="n">
-        <v>103116.539551538</v>
+        <v>247479.6949236912</v>
       </c>
       <c r="K8" t="n">
-        <v>16498.64632824609</v>
+        <v>39596.75118779061</v>
       </c>
       <c r="L8" t="n">
-        <v>8249.323164123043</v>
+        <v>19798.3755938953</v>
       </c>
       <c r="M8" t="n">
-        <v>13405.15014169994</v>
+        <v>32172.36034007986</v>
       </c>
       <c r="N8" t="n">
-        <v>9280.488559638423</v>
+        <v>22273.17254313222</v>
       </c>
       <c r="O8" t="n">
-        <v>46402.44279819211</v>
+        <v>111365.8627156611</v>
       </c>
       <c r="P8" t="n">
-        <v>82493.23164123042</v>
+        <v>197983.755938953</v>
       </c>
       <c r="Q8" t="n">
-        <v>30934.96186546141</v>
+        <v>74243.90847710738</v>
       </c>
       <c r="R8" t="n">
-        <v>10311.6539551538</v>
+        <v>24747.96949236913</v>
       </c>
       <c r="S8" t="n">
-        <v>53620.60056679977</v>
+        <v>128689.4413603195</v>
       </c>
       <c r="T8" t="n">
-        <v>1031.16539551538</v>
+        <v>2474.796949236913</v>
       </c>
       <c r="U8" t="n">
-        <v>27841.46567891527</v>
+        <v>66819.51762939665</v>
       </c>
       <c r="V8" t="n">
-        <v>20623.30791030761</v>
+        <v>49495.93898473826</v>
       </c>
       <c r="W8" t="n">
-        <v>7218.157768607662</v>
+        <v>17323.57864465839</v>
       </c>
       <c r="X8" t="n">
-        <v>45371.27740267674</v>
+        <v>108891.0657664242</v>
       </c>
       <c r="Y8" t="n">
-        <v>38153.11963406907</v>
+        <v>91567.48712176576</v>
       </c>
       <c r="Z8" t="n">
-        <v>20623.30791030761</v>
+        <v>49495.93898473826</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.116539551538</v>
+        <v>247.4796949236913</v>
       </c>
       <c r="AB8" t="n">
-        <v>515.5826977576902</v>
+        <v>1237.398474618456</v>
       </c>
       <c r="AC8" t="n">
-        <v>12373.98474618456</v>
+        <v>29697.56339084296</v>
       </c>
       <c r="AD8" t="n">
-        <v>3093.496186546141</v>
+        <v>7424.390847710739</v>
       </c>
       <c r="AE8" t="n">
-        <v>27841.46567891527</v>
+        <v>66819.51762939665</v>
       </c>
       <c r="AF8" t="n">
-        <v>6186.992373092282</v>
+        <v>14848.78169542148</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>1422225.877990309</v>
+        <v>1531627.868604948</v>
       </c>
       <c r="C9" t="n">
         <v>1531627.868604948</v>
       </c>
       <c r="D9" t="n">
-        <v>2088496.042640209</v>
+        <v>1531627.868604948</v>
       </c>
       <c r="E9" t="n">
         <v>468806.2487555068</v>
@@ -1591,73 +1591,73 @@
         <v>17723.57021661635</v>
       </c>
       <c r="J9" t="n">
-        <v>103219.6560910895</v>
+        <v>247727.1746186149</v>
       </c>
       <c r="K9" t="n">
-        <v>16515.14497457433</v>
+        <v>39636.34793897839</v>
       </c>
       <c r="L9" t="n">
-        <v>8257.572487287163</v>
+        <v>19818.17396948919</v>
       </c>
       <c r="M9" t="n">
-        <v>13418.55529184164</v>
+        <v>32204.53270041994</v>
       </c>
       <c r="N9" t="n">
-        <v>9289.769048198059</v>
+        <v>22295.44571567535</v>
       </c>
       <c r="O9" t="n">
-        <v>46448.8452409903</v>
+        <v>111477.2285783767</v>
       </c>
       <c r="P9" t="n">
-        <v>82575.72487287164</v>
+        <v>198181.7396948919</v>
       </c>
       <c r="Q9" t="n">
-        <v>30965.89682732686</v>
+        <v>74318.15238558447</v>
       </c>
       <c r="R9" t="n">
-        <v>10321.96560910895</v>
+        <v>24772.71746186149</v>
       </c>
       <c r="S9" t="n">
-        <v>53674.22116736657</v>
+        <v>128818.1308016798</v>
       </c>
       <c r="T9" t="n">
-        <v>1032.196560910895</v>
+        <v>2477.271746186149</v>
       </c>
       <c r="U9" t="n">
-        <v>27869.30714459418</v>
+        <v>66886.33714702603</v>
       </c>
       <c r="V9" t="n">
-        <v>20643.93121821791</v>
+        <v>49545.43492372298</v>
       </c>
       <c r="W9" t="n">
-        <v>7225.375926376269</v>
+        <v>17340.90222330304</v>
       </c>
       <c r="X9" t="n">
-        <v>45416.6486800794</v>
+        <v>108999.9568321906</v>
       </c>
       <c r="Y9" t="n">
-        <v>38191.27275370313</v>
+        <v>91659.05460888753</v>
       </c>
       <c r="Z9" t="n">
-        <v>20643.93121821791</v>
+        <v>49545.43492372298</v>
       </c>
       <c r="AA9" t="n">
-        <v>103.2196560910895</v>
+        <v>247.7271746186149</v>
       </c>
       <c r="AB9" t="n">
-        <v>516.0982804554477</v>
+        <v>1238.635873093075</v>
       </c>
       <c r="AC9" t="n">
-        <v>12386.35873093075</v>
+        <v>29727.26095423379</v>
       </c>
       <c r="AD9" t="n">
-        <v>3096.589682732686</v>
+        <v>7431.815238558448</v>
       </c>
       <c r="AE9" t="n">
-        <v>27869.30714459418</v>
+        <v>66886.33714702603</v>
       </c>
       <c r="AF9" t="n">
-        <v>6193.179365465373</v>
+        <v>14863.6304771169</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>1423648.103868299</v>
+        <v>1533159.496473553</v>
       </c>
       <c r="C10" t="n">
         <v>1533159.496473553</v>
       </c>
       <c r="D10" t="n">
-        <v>2090584.538682849</v>
+        <v>1533159.496473553</v>
       </c>
       <c r="E10" t="n">
         <v>469275.0550042624</v>
@@ -1722,73 +1722,73 @@
         <v>17741.29378683297</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>206645.7514943613</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>33063.32023909781</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>16531.66011954891</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>26863.94769426697</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>18598.11763449252</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>92990.58817246258</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>165316.601195489</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>61993.7254483084</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>20664.57514943613</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>107455.7907770679</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2066.457514943613</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>55794.35290347756</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>41329.15029887226</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14465.20260460529</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>90924.13065751898</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>76458.92805291367</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>41329.15029887226</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>206.6457514943613</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1033.228757471807</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>24797.49017932335</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>6199.372544830839</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>55794.35290347756</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>12398.74508966168</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1829,16 +1829,16 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>1425071.751972168</v>
+        <v>1534692.655970026</v>
       </c>
       <c r="C11" t="n">
-        <v>267962.2097725436</v>
+        <v>267962.2097725438</v>
       </c>
       <c r="D11" t="n">
-        <v>2092675.123221532</v>
+        <v>267962.2097725439</v>
       </c>
       <c r="E11" t="n">
-        <v>82018.85128018921</v>
+        <v>469744.3300592665</v>
       </c>
       <c r="F11" t="n">
         <v>82018.85128018925</v>
@@ -1960,16 +1960,16 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>1426496.823724139</v>
+        <v>1536227.348625996</v>
       </c>
       <c r="C12" t="n">
-        <v>268230.1719823162</v>
+        <v>268230.1719823164</v>
       </c>
       <c r="D12" t="n">
-        <v>2094767.798344753</v>
+        <v>268230.1719823164</v>
       </c>
       <c r="E12" t="n">
-        <v>82100.8701314694</v>
+        <v>470214.0743893257</v>
       </c>
       <c r="F12" t="n">
         <v>82100.87013146945</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>268498.4021542979</v>
+        <v>268498.4021542997</v>
       </c>
       <c r="C13" t="n">
-        <v>268498.4021542998</v>
+        <v>268498.4021542986</v>
       </c>
       <c r="D13" t="n">
-        <v>268498.4021542986</v>
+        <v>268498.4021542985</v>
       </c>
       <c r="E13" t="n">
-        <v>82182.97100160105</v>
+        <v>82182.97100160122</v>
       </c>
       <c r="F13" t="n">
-        <v>82182.97100160093</v>
+        <v>82182.97100160092</v>
       </c>
       <c r="G13" t="n">
         <v>66325.21884567825</v>
@@ -2222,16 +2222,16 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>268766.900556452</v>
+        <v>268766.9005564527</v>
       </c>
       <c r="C14" t="n">
-        <v>268766.9005564527</v>
+        <v>268766.9005564529</v>
       </c>
       <c r="D14" t="n">
         <v>268766.9005564529</v>
       </c>
       <c r="E14" t="n">
-        <v>82265.15397260248</v>
+        <v>82265.15397260246</v>
       </c>
       <c r="F14" t="n">
         <v>82265.15397260246</v>
@@ -2353,19 +2353,19 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>269035.6674570088</v>
+        <v>269035.6674570091</v>
       </c>
       <c r="C15" t="n">
         <v>269035.6674570092</v>
       </c>
       <c r="D15" t="n">
-        <v>269035.6674570092</v>
+        <v>269035.6674570091</v>
       </c>
       <c r="E15" t="n">
-        <v>82347.41912657507</v>
+        <v>82347.41912657504</v>
       </c>
       <c r="F15" t="n">
-        <v>82347.41912657506</v>
+        <v>82347.41912657497</v>
       </c>
       <c r="G15" t="n">
         <v>66457.93560858845</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>269304.7031244658</v>
+        <v>269304.7031244661</v>
       </c>
       <c r="C16" t="n">
         <v>269304.7031244662</v>
       </c>
       <c r="D16" t="n">
-        <v>269304.7031244662</v>
+        <v>269304.7031244661</v>
       </c>
       <c r="E16" t="n">
-        <v>82429.76654570161</v>
+        <v>82429.7665457016</v>
       </c>
       <c r="F16" t="n">
-        <v>82429.76654570161</v>
+        <v>82429.76654570155</v>
       </c>
       <c r="G16" t="n">
         <v>66524.39354419702</v>
@@ -2615,7 +2615,7 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>269574.0078275908</v>
+        <v>269574.0078275906</v>
       </c>
       <c r="C17" t="n">
         <v>269574.0078275906</v>
@@ -2624,7 +2624,7 @@
         <v>269574.0078275906</v>
       </c>
       <c r="E17" t="n">
-        <v>82512.19631224732</v>
+        <v>82512.19631224731</v>
       </c>
       <c r="F17" t="n">
         <v>82512.19631224732</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>269843.5818354182</v>
+        <v>269843.5818354181</v>
       </c>
       <c r="C18" t="n">
-        <v>269843.5818354182</v>
+        <v>269843.5818354181</v>
       </c>
       <c r="D18" t="n">
-        <v>269843.5818354182</v>
+        <v>269843.5818354181</v>
       </c>
       <c r="E18" t="n">
         <v>82594.70850855956</v>
       </c>
       <c r="F18" t="n">
-        <v>82594.70850855956</v>
+        <v>82594.70850855955</v>
       </c>
       <c r="G18" t="n">
         <v>66657.50885567896</v>
@@ -2877,16 +2877,16 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>270113.4254172536</v>
+        <v>270113.4254172535</v>
       </c>
       <c r="C19" t="n">
-        <v>270113.4254172536</v>
+        <v>270113.4254172535</v>
       </c>
       <c r="D19" t="n">
         <v>270113.4254172536</v>
       </c>
       <c r="E19" t="n">
-        <v>82677.3032170681</v>
+        <v>82677.30321706808</v>
       </c>
       <c r="F19" t="n">
         <v>82677.3032170681</v>
@@ -3008,19 +3008,19 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>270383.5388426708</v>
+        <v>270383.5388426707</v>
       </c>
       <c r="C20" t="n">
-        <v>270383.5388426708</v>
+        <v>270383.5388426707</v>
       </c>
       <c r="D20" t="n">
-        <v>270383.5388426708</v>
+        <v>270383.5388426707</v>
       </c>
       <c r="E20" t="n">
         <v>82759.98052028517</v>
       </c>
       <c r="F20" t="n">
-        <v>82759.98052028517</v>
+        <v>82759.98052028516</v>
       </c>
       <c r="G20" t="n">
         <v>66790.89053089915</v>
@@ -3145,13 +3145,13 @@
         <v>270653.9223815135</v>
       </c>
       <c r="D21" t="n">
-        <v>270653.9223815135</v>
+        <v>270653.9223815134</v>
       </c>
       <c r="E21" t="n">
         <v>82842.74050080545</v>
       </c>
       <c r="F21" t="n">
-        <v>82842.74050080545</v>
+        <v>82842.74050080543</v>
       </c>
       <c r="G21" t="n">
         <v>66857.68142143005</v>
